--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -629,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -769,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1271,6 +1299,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1314,6 +1343,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2195,6 +2249,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,6 +2285,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,6 +2393,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,6 +2429,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2405,6 +2465,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2440,6 +2501,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2475,6 +2537,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2545,6 +2609,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2580,6 +2645,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2615,6 +2681,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2650,6 +2717,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2685,6 +2753,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2720,6 +2789,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2790,6 +2861,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,6 +2897,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2860,6 +2933,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2895,6 +2969,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,6 +3077,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3035,6 +3113,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3070,6 +3149,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3105,6 +3185,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3140,6 +3221,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,6 +3257,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,6 +3293,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3245,6 +3329,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3315,6 +3401,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,6 +3437,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,6 +3473,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3420,6 +3509,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3447,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3455,6 +3545,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3482,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3490,6 +3581,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3525,6 +3617,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3552,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3560,6 +3653,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,6 +3689,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,6 +3725,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,6 +3761,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,6 +3797,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3735,6 +3833,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,6 +3869,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3797,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3805,6 +3905,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3840,6 +3941,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3867,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3875,6 +3977,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3945,6 +4049,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3980,6 +4085,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,6 +4121,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4050,6 +4157,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4085,6 +4193,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4120,6 +4229,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4155,6 +4265,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4190,6 +4301,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4225,6 +4337,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,6 +4373,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4295,6 +4409,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4330,6 +4445,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4365,6 +4481,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4400,6 +4517,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4435,6 +4553,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4470,6 +4589,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4505,6 +4625,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4540,6 +4661,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4575,6 +4697,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4610,6 +4733,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4645,6 +4769,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4680,6 +4805,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4715,6 +4841,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4742,7 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4750,6 +4877,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>45.87</v>
+        <v>45.07</v>
       </c>
       <c r="C2" t="n">
-        <v>45.88</v>
+        <v>45.07</v>
       </c>
       <c r="D2" t="n">
-        <v>45.88</v>
+        <v>45.07</v>
       </c>
       <c r="E2" t="n">
-        <v>45.87</v>
+        <v>45.07</v>
       </c>
       <c r="F2" t="n">
-        <v>8061</v>
+        <v>317.5716</v>
       </c>
       <c r="G2" t="n">
-        <v>-92353.04187733996</v>
+        <v>-77489.13746073999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>45.87</v>
+        <v>45.08</v>
       </c>
       <c r="C3" t="n">
-        <v>45.87</v>
+        <v>45.08</v>
       </c>
       <c r="D3" t="n">
-        <v>45.87</v>
+        <v>45.08</v>
       </c>
       <c r="E3" t="n">
-        <v>45.87</v>
+        <v>45.08</v>
       </c>
       <c r="F3" t="n">
-        <v>2529</v>
+        <v>12000</v>
       </c>
       <c r="G3" t="n">
-        <v>-94882.04187733996</v>
+        <v>-65489.13746073999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45.6</v>
+        <v>45.09</v>
       </c>
       <c r="C4" t="n">
-        <v>45.6</v>
+        <v>45.09</v>
       </c>
       <c r="D4" t="n">
-        <v>45.6</v>
+        <v>45.09</v>
       </c>
       <c r="E4" t="n">
-        <v>45.6</v>
+        <v>45.09</v>
       </c>
       <c r="F4" t="n">
-        <v>540</v>
+        <v>32534.9464</v>
       </c>
       <c r="G4" t="n">
-        <v>-95422.04187733996</v>
+        <v>-32954.19106073999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45.44</v>
+        <v>45.09</v>
       </c>
       <c r="C5" t="n">
-        <v>45.44</v>
+        <v>45.09</v>
       </c>
       <c r="D5" t="n">
-        <v>45.44</v>
+        <v>45.09</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44</v>
+        <v>45.09</v>
       </c>
       <c r="F5" t="n">
-        <v>773.1833</v>
+        <v>24061.9422</v>
       </c>
       <c r="G5" t="n">
-        <v>-96195.22517733996</v>
+        <v>-32954.19106073999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45.44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>45.44</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>45.44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="n">
-        <v>45.44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="n">
-        <v>2277.1758</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-96195.22517733996</v>
+        <v>-33954.19106073999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45.45</v>
+        <v>44.97</v>
       </c>
       <c r="C7" t="n">
-        <v>45.4</v>
+        <v>44.62</v>
       </c>
       <c r="D7" t="n">
-        <v>45.45</v>
+        <v>44.97</v>
       </c>
       <c r="E7" t="n">
-        <v>45.4</v>
+        <v>44.62</v>
       </c>
       <c r="F7" t="n">
-        <v>5572.0794</v>
+        <v>11603.1165</v>
       </c>
       <c r="G7" t="n">
-        <v>-101767.30457734</v>
+        <v>-45557.30756074</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="C8" t="n">
-        <v>45.47</v>
+        <v>45.1</v>
       </c>
       <c r="D8" t="n">
-        <v>45.47</v>
+        <v>45.1</v>
       </c>
       <c r="E8" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="F8" t="n">
-        <v>3520.55319111</v>
+        <v>13.9112</v>
       </c>
       <c r="G8" t="n">
-        <v>-98246.75138622997</v>
+        <v>-45543.39636073999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>45.3</v>
+        <v>45.27</v>
       </c>
       <c r="C9" t="n">
-        <v>45.3</v>
+        <v>45.28</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3</v>
+        <v>45.28</v>
       </c>
       <c r="E9" t="n">
-        <v>45.3</v>
+        <v>45.27</v>
       </c>
       <c r="F9" t="n">
-        <v>696.0282</v>
+        <v>1100</v>
       </c>
       <c r="G9" t="n">
-        <v>-98942.77958622997</v>
+        <v>-44443.39636073999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="C10" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="D10" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="E10" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="F10" t="n">
-        <v>3000.9002</v>
+        <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>-95941.87938622996</v>
+        <v>-44443.39636073999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="C11" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="D11" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="E11" t="n">
-        <v>45.46</v>
+        <v>45.28</v>
       </c>
       <c r="F11" t="n">
-        <v>742.7404</v>
+        <v>0.2344</v>
       </c>
       <c r="G11" t="n">
-        <v>-95941.87938622996</v>
+        <v>-44443.39636073999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45.3</v>
+        <v>45.79</v>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>45.79</v>
       </c>
       <c r="D12" t="n">
-        <v>45.3</v>
+        <v>45.79</v>
       </c>
       <c r="E12" t="n">
-        <v>45.3</v>
+        <v>45.79</v>
       </c>
       <c r="F12" t="n">
-        <v>152.5447</v>
+        <v>10.9195</v>
       </c>
       <c r="G12" t="n">
-        <v>-96094.42408622996</v>
+        <v>-44432.47686073999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45.14</v>
+        <v>45.6</v>
       </c>
       <c r="C13" t="n">
-        <v>45.14</v>
+        <v>45.6</v>
       </c>
       <c r="D13" t="n">
-        <v>45.14</v>
+        <v>45.6</v>
       </c>
       <c r="E13" t="n">
-        <v>45.14</v>
+        <v>45.6</v>
       </c>
       <c r="F13" t="n">
-        <v>57.2414</v>
+        <v>10.965</v>
       </c>
       <c r="G13" t="n">
-        <v>-96151.66548622996</v>
+        <v>-44443.44186073999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44.91</v>
+        <v>45.34</v>
       </c>
       <c r="C14" t="n">
-        <v>44.91</v>
+        <v>45.3</v>
       </c>
       <c r="D14" t="n">
-        <v>44.91</v>
+        <v>45.34</v>
       </c>
       <c r="E14" t="n">
-        <v>44.91</v>
+        <v>45.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1246.1563</v>
+        <v>30163.1678</v>
       </c>
       <c r="G14" t="n">
-        <v>-97397.82178622996</v>
+        <v>-74606.60966073998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>44.62</v>
+        <v>45.66</v>
       </c>
       <c r="C15" t="n">
-        <v>44.62</v>
+        <v>45.66</v>
       </c>
       <c r="D15" t="n">
-        <v>44.62</v>
+        <v>45.66</v>
       </c>
       <c r="E15" t="n">
-        <v>44.53</v>
+        <v>45.66</v>
       </c>
       <c r="F15" t="n">
-        <v>5800.9832</v>
+        <v>3657.4685</v>
       </c>
       <c r="G15" t="n">
-        <v>-103198.80498623</v>
+        <v>-70949.14116073998</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>44.58</v>
+        <v>45.55</v>
       </c>
       <c r="C16" t="n">
-        <v>44.58</v>
+        <v>45.55</v>
       </c>
       <c r="D16" t="n">
-        <v>44.58</v>
+        <v>45.55</v>
       </c>
       <c r="E16" t="n">
-        <v>44.58</v>
+        <v>45.55</v>
       </c>
       <c r="F16" t="n">
-        <v>1086.9565</v>
+        <v>250.0804</v>
       </c>
       <c r="G16" t="n">
-        <v>-104285.76148623</v>
+        <v>-71199.22156073998</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>44.6</v>
+        <v>45.25</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6</v>
+        <v>45.16</v>
       </c>
       <c r="D17" t="n">
-        <v>44.6</v>
+        <v>45.25</v>
       </c>
       <c r="E17" t="n">
-        <v>44.6</v>
+        <v>45.16</v>
       </c>
       <c r="F17" t="n">
-        <v>635.7734</v>
+        <v>12200</v>
       </c>
       <c r="G17" t="n">
-        <v>-103649.98808623</v>
+        <v>-83399.22156073998</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.64</v>
+        <v>45.3</v>
       </c>
       <c r="C18" t="n">
-        <v>44.64</v>
+        <v>45.47</v>
       </c>
       <c r="D18" t="n">
-        <v>44.64</v>
+        <v>45.47</v>
       </c>
       <c r="E18" t="n">
-        <v>44.64</v>
+        <v>45.01</v>
       </c>
       <c r="F18" t="n">
-        <v>2344.5162</v>
+        <v>8329.180700000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-101305.47188623</v>
+        <v>-75070.04086073999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>44.64</v>
+        <v>45.3</v>
       </c>
       <c r="C19" t="n">
-        <v>44.64</v>
+        <v>45.39</v>
       </c>
       <c r="D19" t="n">
-        <v>44.64</v>
+        <v>45.39</v>
       </c>
       <c r="E19" t="n">
-        <v>44.64</v>
+        <v>45.3</v>
       </c>
       <c r="F19" t="n">
-        <v>768.7953</v>
+        <v>39755.6043</v>
       </c>
       <c r="G19" t="n">
-        <v>-101305.47188623</v>
+        <v>-114825.64516074</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.39</v>
+        <v>45.1</v>
       </c>
       <c r="C20" t="n">
-        <v>44.35</v>
+        <v>45.1</v>
       </c>
       <c r="D20" t="n">
-        <v>44.39</v>
+        <v>45.1</v>
       </c>
       <c r="E20" t="n">
-        <v>44.35</v>
+        <v>45.1</v>
       </c>
       <c r="F20" t="n">
-        <v>1598.7794</v>
+        <v>540.7039</v>
       </c>
       <c r="G20" t="n">
-        <v>-102904.25128623</v>
+        <v>-115366.34906074</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.49</v>
+        <v>45.29</v>
       </c>
       <c r="C21" t="n">
-        <v>44.49</v>
+        <v>45.29</v>
       </c>
       <c r="D21" t="n">
-        <v>44.49</v>
+        <v>45.29</v>
       </c>
       <c r="E21" t="n">
-        <v>44.49</v>
+        <v>45.29</v>
       </c>
       <c r="F21" t="n">
-        <v>9800</v>
+        <v>10598</v>
       </c>
       <c r="G21" t="n">
-        <v>-93104.25128622996</v>
+        <v>-104768.34906074</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.35</v>
+        <v>45.28</v>
       </c>
       <c r="C22" t="n">
-        <v>44.19</v>
+        <v>45.58</v>
       </c>
       <c r="D22" t="n">
-        <v>44.35</v>
+        <v>45.58</v>
       </c>
       <c r="E22" t="n">
-        <v>44.19</v>
+        <v>45.28</v>
       </c>
       <c r="F22" t="n">
-        <v>7400</v>
+        <v>35661.4853</v>
       </c>
       <c r="G22" t="n">
-        <v>-100504.25128623</v>
+        <v>-69106.86376073997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>44.14</v>
+        <v>45.8</v>
       </c>
       <c r="C23" t="n">
-        <v>43.91</v>
+        <v>45.8</v>
       </c>
       <c r="D23" t="n">
-        <v>44.14</v>
+        <v>45.8</v>
       </c>
       <c r="E23" t="n">
-        <v>43.91</v>
+        <v>45.8</v>
       </c>
       <c r="F23" t="n">
-        <v>30000</v>
+        <v>30.5021834</v>
       </c>
       <c r="G23" t="n">
-        <v>-130504.25128623</v>
+        <v>-69076.36157733997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>44.01</v>
+        <v>45.9</v>
       </c>
       <c r="C24" t="n">
-        <v>44.01</v>
+        <v>45.99</v>
       </c>
       <c r="D24" t="n">
-        <v>44.01</v>
+        <v>45.99</v>
       </c>
       <c r="E24" t="n">
-        <v>44.01</v>
+        <v>45.9</v>
       </c>
       <c r="F24" t="n">
-        <v>1283.9395</v>
+        <v>13000</v>
       </c>
       <c r="G24" t="n">
-        <v>-129220.31178623</v>
+        <v>-56076.36157733997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,35 +1266,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>44.09</v>
+        <v>45.99</v>
       </c>
       <c r="C25" t="n">
-        <v>44.09</v>
+        <v>45.99</v>
       </c>
       <c r="D25" t="n">
-        <v>44.09</v>
+        <v>45.99</v>
       </c>
       <c r="E25" t="n">
-        <v>44.09</v>
+        <v>45.99</v>
       </c>
       <c r="F25" t="n">
-        <v>537</v>
+        <v>19800</v>
       </c>
       <c r="G25" t="n">
-        <v>-128683.31178623</v>
+        <v>-56076.36157733997</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="K25" t="n">
-        <v>44.01</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1306,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>44.09</v>
+        <v>45.7</v>
       </c>
       <c r="C26" t="n">
-        <v>44.09</v>
+        <v>45.7</v>
       </c>
       <c r="D26" t="n">
-        <v>44.09</v>
+        <v>45.7</v>
       </c>
       <c r="E26" t="n">
-        <v>44.09</v>
+        <v>45.7</v>
       </c>
       <c r="F26" t="n">
-        <v>103.4347</v>
+        <v>719.0454</v>
       </c>
       <c r="G26" t="n">
-        <v>-128683.31178623</v>
+        <v>-56795.40697733997</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="K26" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1350,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>44.2</v>
+        <v>45.6</v>
       </c>
       <c r="C27" t="n">
-        <v>44.2</v>
+        <v>45.49</v>
       </c>
       <c r="D27" t="n">
-        <v>44.2</v>
+        <v>45.6</v>
       </c>
       <c r="E27" t="n">
-        <v>44.2</v>
+        <v>45.49</v>
       </c>
       <c r="F27" t="n">
-        <v>727.3621000000001</v>
+        <v>51844.7772</v>
       </c>
       <c r="G27" t="n">
-        <v>-127955.94968623</v>
+        <v>-108640.18417734</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,14 +1362,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>44.01</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1392,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>44.22</v>
+        <v>45.54</v>
       </c>
       <c r="C28" t="n">
-        <v>44.54</v>
+        <v>45.54</v>
       </c>
       <c r="D28" t="n">
-        <v>44.54</v>
+        <v>45.54</v>
       </c>
       <c r="E28" t="n">
-        <v>44.22</v>
+        <v>45.54</v>
       </c>
       <c r="F28" t="n">
-        <v>21835.6306</v>
+        <v>1170</v>
       </c>
       <c r="G28" t="n">
-        <v>-106120.31908623</v>
+        <v>-107470.18417734</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1428,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>44.3</v>
+        <v>45.79</v>
       </c>
       <c r="C29" t="n">
-        <v>44.3</v>
+        <v>45.79</v>
       </c>
       <c r="D29" t="n">
-        <v>44.3</v>
+        <v>45.79</v>
       </c>
       <c r="E29" t="n">
-        <v>44.3</v>
+        <v>45.79</v>
       </c>
       <c r="F29" t="n">
-        <v>691.253</v>
+        <v>33.1423</v>
       </c>
       <c r="G29" t="n">
-        <v>-106811.57208623</v>
+        <v>-107437.04187734</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1464,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>44.31</v>
+        <v>45.78</v>
       </c>
       <c r="C30" t="n">
-        <v>44.31</v>
+        <v>45.87</v>
       </c>
       <c r="D30" t="n">
-        <v>44.31</v>
+        <v>45.87</v>
       </c>
       <c r="E30" t="n">
-        <v>44.31</v>
+        <v>45.78</v>
       </c>
       <c r="F30" t="n">
-        <v>1423.1811</v>
+        <v>7023</v>
       </c>
       <c r="G30" t="n">
-        <v>-105388.39098623</v>
+        <v>-100414.04187734</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1500,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>44.37</v>
+        <v>45.87</v>
       </c>
       <c r="C31" t="n">
-        <v>44.37</v>
+        <v>45.88</v>
       </c>
       <c r="D31" t="n">
-        <v>44.37</v>
+        <v>45.88</v>
       </c>
       <c r="E31" t="n">
-        <v>44.37</v>
+        <v>45.87</v>
       </c>
       <c r="F31" t="n">
-        <v>4028.4753</v>
+        <v>8061</v>
       </c>
       <c r="G31" t="n">
-        <v>-101359.91568623</v>
+        <v>-92353.04187733996</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>44.5</v>
+        <v>45.87</v>
       </c>
       <c r="C32" t="n">
-        <v>44.5</v>
+        <v>45.87</v>
       </c>
       <c r="D32" t="n">
-        <v>44.5</v>
+        <v>45.87</v>
       </c>
       <c r="E32" t="n">
-        <v>44.5</v>
+        <v>45.87</v>
       </c>
       <c r="F32" t="n">
-        <v>730.5054</v>
+        <v>2529</v>
       </c>
       <c r="G32" t="n">
-        <v>-100629.41028623</v>
+        <v>-94882.04187733996</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1572,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="C33" t="n">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="D33" t="n">
-        <v>44.7</v>
+        <v>45.6</v>
       </c>
       <c r="E33" t="n">
-        <v>44.6</v>
+        <v>45.6</v>
       </c>
       <c r="F33" t="n">
-        <v>4953.4125</v>
+        <v>540</v>
       </c>
       <c r="G33" t="n">
-        <v>-95675.99778622996</v>
+        <v>-95422.04187733996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1608,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44.7</v>
+        <v>45.44</v>
       </c>
       <c r="C34" t="n">
-        <v>44.6</v>
+        <v>45.44</v>
       </c>
       <c r="D34" t="n">
-        <v>44.7</v>
+        <v>45.44</v>
       </c>
       <c r="E34" t="n">
-        <v>44.6</v>
+        <v>45.44</v>
       </c>
       <c r="F34" t="n">
-        <v>34975.6914</v>
+        <v>773.1833</v>
       </c>
       <c r="G34" t="n">
-        <v>-95675.99778622996</v>
+        <v>-96195.22517733996</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1644,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>44.5</v>
+        <v>45.44</v>
       </c>
       <c r="C35" t="n">
-        <v>44.6</v>
+        <v>45.44</v>
       </c>
       <c r="D35" t="n">
-        <v>44.6</v>
+        <v>45.44</v>
       </c>
       <c r="E35" t="n">
-        <v>44.5</v>
+        <v>45.44</v>
       </c>
       <c r="F35" t="n">
-        <v>9000</v>
+        <v>2277.1758</v>
       </c>
       <c r="G35" t="n">
-        <v>-95675.99778622996</v>
+        <v>-96195.22517733996</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1680,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="C36" t="n">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="D36" t="n">
-        <v>44.6</v>
+        <v>45.45</v>
       </c>
       <c r="E36" t="n">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="F36" t="n">
-        <v>19600</v>
+        <v>5572.0794</v>
       </c>
       <c r="G36" t="n">
-        <v>-95675.99778622996</v>
+        <v>-101767.30457734</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1716,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="C37" t="n">
-        <v>44.7</v>
+        <v>45.47</v>
       </c>
       <c r="D37" t="n">
-        <v>44.82</v>
+        <v>45.47</v>
       </c>
       <c r="E37" t="n">
-        <v>44.6</v>
+        <v>45.4</v>
       </c>
       <c r="F37" t="n">
-        <v>51782.0021</v>
+        <v>3520.55319111</v>
       </c>
       <c r="G37" t="n">
-        <v>-43893.99568622996</v>
+        <v>-98246.75138622997</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1752,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="C38" t="n">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="D38" t="n">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="E38" t="n">
-        <v>44.7</v>
+        <v>45.3</v>
       </c>
       <c r="F38" t="n">
-        <v>547.644</v>
+        <v>696.0282</v>
       </c>
       <c r="G38" t="n">
-        <v>-43893.99568622996</v>
+        <v>-98942.77958622997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1788,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>44.7</v>
+        <v>45.46</v>
       </c>
       <c r="C39" t="n">
-        <v>44.9</v>
+        <v>45.46</v>
       </c>
       <c r="D39" t="n">
-        <v>44.9</v>
+        <v>45.46</v>
       </c>
       <c r="E39" t="n">
-        <v>44.66</v>
+        <v>45.46</v>
       </c>
       <c r="F39" t="n">
-        <v>15465.9345</v>
+        <v>3000.9002</v>
       </c>
       <c r="G39" t="n">
-        <v>-28428.06118622996</v>
+        <v>-95941.87938622996</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1824,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>44.9</v>
+        <v>45.46</v>
       </c>
       <c r="C40" t="n">
-        <v>44.8</v>
+        <v>45.46</v>
       </c>
       <c r="D40" t="n">
-        <v>44.9</v>
+        <v>45.46</v>
       </c>
       <c r="E40" t="n">
-        <v>44.8</v>
+        <v>45.46</v>
       </c>
       <c r="F40" t="n">
-        <v>319.9696</v>
+        <v>742.7404</v>
       </c>
       <c r="G40" t="n">
-        <v>-28748.03078622996</v>
+        <v>-95941.87938622996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1860,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="C41" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="D41" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="E41" t="n">
-        <v>44.8</v>
+        <v>45.3</v>
       </c>
       <c r="F41" t="n">
-        <v>1072.2299</v>
+        <v>152.5447</v>
       </c>
       <c r="G41" t="n">
-        <v>-28748.03078622996</v>
+        <v>-96094.42408622996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1896,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>44.7</v>
+        <v>45.14</v>
       </c>
       <c r="C42" t="n">
-        <v>44.7</v>
+        <v>45.14</v>
       </c>
       <c r="D42" t="n">
-        <v>44.7</v>
+        <v>45.14</v>
       </c>
       <c r="E42" t="n">
-        <v>44.7</v>
+        <v>45.14</v>
       </c>
       <c r="F42" t="n">
-        <v>155.2301</v>
+        <v>57.2414</v>
       </c>
       <c r="G42" t="n">
-        <v>-28903.26088622996</v>
+        <v>-96151.66548622996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1932,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>44.7</v>
+        <v>44.91</v>
       </c>
       <c r="C43" t="n">
-        <v>44.8</v>
+        <v>44.91</v>
       </c>
       <c r="D43" t="n">
-        <v>44.8</v>
+        <v>44.91</v>
       </c>
       <c r="E43" t="n">
-        <v>44.7</v>
+        <v>44.91</v>
       </c>
       <c r="F43" t="n">
-        <v>40000</v>
+        <v>1246.1563</v>
       </c>
       <c r="G43" t="n">
-        <v>11096.73911377004</v>
+        <v>-97397.82178622996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1968,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>44.9</v>
+        <v>44.62</v>
       </c>
       <c r="C44" t="n">
-        <v>44.9</v>
+        <v>44.62</v>
       </c>
       <c r="D44" t="n">
-        <v>44.9</v>
+        <v>44.62</v>
       </c>
       <c r="E44" t="n">
-        <v>44.9</v>
+        <v>44.53</v>
       </c>
       <c r="F44" t="n">
-        <v>683.3339999999999</v>
+        <v>5800.9832</v>
       </c>
       <c r="G44" t="n">
-        <v>11780.07311377004</v>
+        <v>-103198.80498623</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2004,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>44.8</v>
+        <v>44.58</v>
       </c>
       <c r="C45" t="n">
-        <v>44.8</v>
+        <v>44.58</v>
       </c>
       <c r="D45" t="n">
-        <v>44.8</v>
+        <v>44.58</v>
       </c>
       <c r="E45" t="n">
-        <v>44.8</v>
+        <v>44.58</v>
       </c>
       <c r="F45" t="n">
-        <v>439.5088</v>
+        <v>1086.9565</v>
       </c>
       <c r="G45" t="n">
-        <v>11340.56431377004</v>
+        <v>-104285.76148623</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2040,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="C46" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="D46" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="E46" t="n">
-        <v>44.8</v>
+        <v>44.6</v>
       </c>
       <c r="F46" t="n">
-        <v>199.1943</v>
+        <v>635.7734</v>
       </c>
       <c r="G46" t="n">
-        <v>11340.56431377004</v>
+        <v>-103649.98808623</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2076,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="C47" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="D47" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="E47" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="F47" t="n">
-        <v>91</v>
+        <v>2344.5162</v>
       </c>
       <c r="G47" t="n">
-        <v>11249.56431377004</v>
+        <v>-101305.47188623</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2112,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="C48" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="D48" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="E48" t="n">
-        <v>44.71</v>
+        <v>44.64</v>
       </c>
       <c r="F48" t="n">
-        <v>13</v>
+        <v>768.7953</v>
       </c>
       <c r="G48" t="n">
-        <v>11249.56431377004</v>
+        <v>-101305.47188623</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2148,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>44.71</v>
+        <v>44.39</v>
       </c>
       <c r="C49" t="n">
-        <v>44.71</v>
+        <v>44.35</v>
       </c>
       <c r="D49" t="n">
-        <v>44.71</v>
+        <v>44.39</v>
       </c>
       <c r="E49" t="n">
-        <v>44.71</v>
+        <v>44.35</v>
       </c>
       <c r="F49" t="n">
-        <v>13</v>
+        <v>1598.7794</v>
       </c>
       <c r="G49" t="n">
-        <v>11249.56431377004</v>
+        <v>-102904.25128623</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2184,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>44.71</v>
+        <v>44.49</v>
       </c>
       <c r="C50" t="n">
-        <v>44.71</v>
+        <v>44.49</v>
       </c>
       <c r="D50" t="n">
-        <v>44.71</v>
+        <v>44.49</v>
       </c>
       <c r="E50" t="n">
-        <v>44.71</v>
+        <v>44.49</v>
       </c>
       <c r="F50" t="n">
-        <v>143</v>
+        <v>9800</v>
       </c>
       <c r="G50" t="n">
-        <v>11249.56431377004</v>
+        <v>-93104.25128622996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2220,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>44.71</v>
+        <v>44.35</v>
       </c>
       <c r="C51" t="n">
-        <v>44.71</v>
+        <v>44.19</v>
       </c>
       <c r="D51" t="n">
-        <v>44.71</v>
+        <v>44.35</v>
       </c>
       <c r="E51" t="n">
-        <v>44.71</v>
+        <v>44.19</v>
       </c>
       <c r="F51" t="n">
-        <v>143</v>
+        <v>7400</v>
       </c>
       <c r="G51" t="n">
-        <v>11249.56431377004</v>
+        <v>-100504.25128623</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2256,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>44.67</v>
+        <v>44.14</v>
       </c>
       <c r="C52" t="n">
-        <v>44.67</v>
+        <v>43.91</v>
       </c>
       <c r="D52" t="n">
-        <v>44.99</v>
+        <v>44.14</v>
       </c>
       <c r="E52" t="n">
-        <v>44.67</v>
+        <v>43.91</v>
       </c>
       <c r="F52" t="n">
-        <v>70</v>
+        <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>11179.56431377004</v>
+        <v>-130504.25128623</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2292,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>44.72</v>
+        <v>44.01</v>
       </c>
       <c r="C53" t="n">
-        <v>44.75</v>
+        <v>44.01</v>
       </c>
       <c r="D53" t="n">
-        <v>44.99</v>
+        <v>44.01</v>
       </c>
       <c r="E53" t="n">
-        <v>44.72</v>
+        <v>44.01</v>
       </c>
       <c r="F53" t="n">
-        <v>81</v>
+        <v>1283.9395</v>
       </c>
       <c r="G53" t="n">
-        <v>11260.56431377004</v>
+        <v>-129220.31178623</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2328,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>44.68</v>
+        <v>44.09</v>
       </c>
       <c r="C54" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="D54" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="E54" t="n">
-        <v>44.68</v>
+        <v>44.09</v>
       </c>
       <c r="F54" t="n">
-        <v>95</v>
+        <v>537</v>
       </c>
       <c r="G54" t="n">
-        <v>11355.56431377004</v>
+        <v>-128683.31178623</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2364,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="C55" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="D55" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="E55" t="n">
-        <v>44.99</v>
+        <v>44.09</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>103.4347</v>
       </c>
       <c r="G55" t="n">
-        <v>11355.56431377004</v>
+        <v>-128683.31178623</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2400,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>44.63</v>
+        <v>44.2</v>
       </c>
       <c r="C56" t="n">
-        <v>44.99</v>
+        <v>44.2</v>
       </c>
       <c r="D56" t="n">
-        <v>44.99</v>
+        <v>44.2</v>
       </c>
       <c r="E56" t="n">
-        <v>44.63</v>
+        <v>44.2</v>
       </c>
       <c r="F56" t="n">
-        <v>312</v>
+        <v>727.3621000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>11355.56431377004</v>
+        <v>-127955.94968623</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2436,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>44.98</v>
+        <v>44.22</v>
       </c>
       <c r="C57" t="n">
-        <v>44.98</v>
+        <v>44.54</v>
       </c>
       <c r="D57" t="n">
-        <v>44.98</v>
+        <v>44.54</v>
       </c>
       <c r="E57" t="n">
-        <v>44.98</v>
+        <v>44.22</v>
       </c>
       <c r="F57" t="n">
-        <v>15</v>
+        <v>21835.6306</v>
       </c>
       <c r="G57" t="n">
-        <v>11340.56431377004</v>
+        <v>-106120.31908623</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2472,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>44.71</v>
+        <v>44.3</v>
       </c>
       <c r="C58" t="n">
-        <v>44.71</v>
+        <v>44.3</v>
       </c>
       <c r="D58" t="n">
-        <v>44.71</v>
+        <v>44.3</v>
       </c>
       <c r="E58" t="n">
-        <v>44.71</v>
+        <v>44.3</v>
       </c>
       <c r="F58" t="n">
-        <v>60</v>
+        <v>691.253</v>
       </c>
       <c r="G58" t="n">
-        <v>11280.56431377004</v>
+        <v>-106811.57208623</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2508,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>44.97</v>
+        <v>44.31</v>
       </c>
       <c r="C59" t="n">
-        <v>44.97</v>
+        <v>44.31</v>
       </c>
       <c r="D59" t="n">
-        <v>44.97</v>
+        <v>44.31</v>
       </c>
       <c r="E59" t="n">
-        <v>44.97</v>
+        <v>44.31</v>
       </c>
       <c r="F59" t="n">
-        <v>20</v>
+        <v>1423.1811</v>
       </c>
       <c r="G59" t="n">
-        <v>11300.56431377004</v>
+        <v>-105388.39098623</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2544,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>44.71</v>
+        <v>44.37</v>
       </c>
       <c r="C60" t="n">
-        <v>44.6</v>
+        <v>44.37</v>
       </c>
       <c r="D60" t="n">
-        <v>44.96</v>
+        <v>44.37</v>
       </c>
       <c r="E60" t="n">
-        <v>44.6</v>
+        <v>44.37</v>
       </c>
       <c r="F60" t="n">
-        <v>221</v>
+        <v>4028.4753</v>
       </c>
       <c r="G60" t="n">
-        <v>11079.56431377004</v>
+        <v>-101359.91568623</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2580,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="C61" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="D61" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="E61" t="n">
-        <v>44.9</v>
+        <v>44.5</v>
       </c>
       <c r="F61" t="n">
-        <v>25</v>
+        <v>730.5054</v>
       </c>
       <c r="G61" t="n">
-        <v>11104.56431377004</v>
+        <v>-100629.41028623</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2619,19 +2601,19 @@
         <v>44.6</v>
       </c>
       <c r="C62" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="D62" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="E62" t="n">
         <v>44.6</v>
       </c>
-      <c r="E62" t="n">
-        <v>44.57</v>
-      </c>
       <c r="F62" t="n">
-        <v>13250.2366</v>
+        <v>4953.4125</v>
       </c>
       <c r="G62" t="n">
-        <v>-2145.672286229959</v>
+        <v>-95675.99778622996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2652,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>44.47</v>
+        <v>44.7</v>
       </c>
       <c r="C63" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="D63" t="n">
-        <v>44.57</v>
+        <v>44.7</v>
       </c>
       <c r="E63" t="n">
-        <v>44.47</v>
+        <v>44.6</v>
       </c>
       <c r="F63" t="n">
-        <v>17414.1005</v>
+        <v>34975.6914</v>
       </c>
       <c r="G63" t="n">
-        <v>-2145.672286229959</v>
+        <v>-95675.99778622996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2688,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>44.47</v>
+        <v>44.5</v>
       </c>
       <c r="C64" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="D64" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="E64" t="n">
-        <v>44.47</v>
+        <v>44.5</v>
       </c>
       <c r="F64" t="n">
-        <v>1607.9312</v>
+        <v>9000</v>
       </c>
       <c r="G64" t="n">
-        <v>-2145.672286229959</v>
+        <v>-95675.99778622996</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2724,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="C65" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="D65" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="E65" t="n">
-        <v>44.57</v>
+        <v>44.6</v>
       </c>
       <c r="F65" t="n">
-        <v>47</v>
+        <v>19600</v>
       </c>
       <c r="G65" t="n">
-        <v>-2145.672286229959</v>
+        <v>-95675.99778622996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2760,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>44.41</v>
+        <v>44.6</v>
       </c>
       <c r="C66" t="n">
-        <v>44.41</v>
+        <v>44.7</v>
       </c>
       <c r="D66" t="n">
-        <v>44.41</v>
+        <v>44.82</v>
       </c>
       <c r="E66" t="n">
-        <v>44.4</v>
+        <v>44.6</v>
       </c>
       <c r="F66" t="n">
-        <v>560</v>
+        <v>51782.0021</v>
       </c>
       <c r="G66" t="n">
-        <v>-2705.672286229959</v>
+        <v>-43893.99568622996</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>44.38</v>
+        <v>44.7</v>
       </c>
       <c r="C67" t="n">
-        <v>44.38</v>
+        <v>44.7</v>
       </c>
       <c r="D67" t="n">
-        <v>44.38</v>
+        <v>44.7</v>
       </c>
       <c r="E67" t="n">
-        <v>44.38</v>
+        <v>44.7</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>547.644</v>
       </c>
       <c r="G67" t="n">
-        <v>-2735.672286229959</v>
+        <v>-43893.99568622996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2832,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>44.38</v>
+        <v>44.7</v>
       </c>
       <c r="C68" t="n">
-        <v>44.38</v>
+        <v>44.9</v>
       </c>
       <c r="D68" t="n">
-        <v>44.38</v>
+        <v>44.9</v>
       </c>
       <c r="E68" t="n">
-        <v>44.38</v>
+        <v>44.66</v>
       </c>
       <c r="F68" t="n">
-        <v>45758.2244</v>
+        <v>15465.9345</v>
       </c>
       <c r="G68" t="n">
-        <v>-2735.672286229959</v>
+        <v>-28428.06118622996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2868,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>44.39</v>
+        <v>44.9</v>
       </c>
       <c r="C69" t="n">
-        <v>44.39</v>
+        <v>44.8</v>
       </c>
       <c r="D69" t="n">
-        <v>44.39</v>
+        <v>44.9</v>
       </c>
       <c r="E69" t="n">
-        <v>44.39</v>
+        <v>44.8</v>
       </c>
       <c r="F69" t="n">
-        <v>12000</v>
+        <v>319.9696</v>
       </c>
       <c r="G69" t="n">
-        <v>9264.327713770041</v>
+        <v>-28748.03078622996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2904,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="C70" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="D70" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="E70" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="F70" t="n">
-        <v>12</v>
+        <v>1072.2299</v>
       </c>
       <c r="G70" t="n">
-        <v>9276.327713770041</v>
+        <v>-28748.03078622996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2940,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>44.57</v>
+        <v>44.7</v>
       </c>
       <c r="C71" t="n">
-        <v>44.57</v>
+        <v>44.7</v>
       </c>
       <c r="D71" t="n">
-        <v>44.57</v>
+        <v>44.7</v>
       </c>
       <c r="E71" t="n">
-        <v>44.57</v>
+        <v>44.7</v>
       </c>
       <c r="F71" t="n">
-        <v>21400</v>
+        <v>155.2301</v>
       </c>
       <c r="G71" t="n">
-        <v>9276.327713770041</v>
+        <v>-28903.26088622996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2976,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>44.41</v>
+        <v>44.7</v>
       </c>
       <c r="C72" t="n">
-        <v>44.43</v>
+        <v>44.8</v>
       </c>
       <c r="D72" t="n">
-        <v>44.56</v>
+        <v>44.8</v>
       </c>
       <c r="E72" t="n">
-        <v>44.41</v>
+        <v>44.7</v>
       </c>
       <c r="F72" t="n">
-        <v>353</v>
+        <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>8923.327713770041</v>
+        <v>11096.73911377004</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3012,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.57</v>
+        <v>44.9</v>
       </c>
       <c r="C73" t="n">
-        <v>44.57</v>
+        <v>44.9</v>
       </c>
       <c r="D73" t="n">
-        <v>44.57</v>
+        <v>44.9</v>
       </c>
       <c r="E73" t="n">
-        <v>44.57</v>
+        <v>44.9</v>
       </c>
       <c r="F73" t="n">
-        <v>17415.9862</v>
+        <v>683.3339999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>26339.31391377004</v>
+        <v>11780.07311377004</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3048,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>44.45</v>
+        <v>44.8</v>
       </c>
       <c r="C74" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="D74" t="n">
-        <v>44.57</v>
+        <v>44.8</v>
       </c>
       <c r="E74" t="n">
-        <v>44.45</v>
+        <v>44.8</v>
       </c>
       <c r="F74" t="n">
-        <v>260</v>
+        <v>439.5088</v>
       </c>
       <c r="G74" t="n">
-        <v>26339.31391377004</v>
+        <v>11340.56431377004</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3084,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="C75" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="D75" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="E75" t="n">
-        <v>44.4</v>
+        <v>44.8</v>
       </c>
       <c r="F75" t="n">
-        <v>276.6731</v>
+        <v>199.1943</v>
       </c>
       <c r="G75" t="n">
-        <v>26062.64081377004</v>
+        <v>11340.56431377004</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3120,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="C76" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="D76" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="E76" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="F76" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G76" t="n">
-        <v>26182.64081377004</v>
+        <v>11249.56431377004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3156,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>44.51</v>
+        <v>44.71</v>
       </c>
       <c r="C77" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="D77" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="E77" t="n">
-        <v>44.51</v>
+        <v>44.71</v>
       </c>
       <c r="F77" t="n">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="G77" t="n">
-        <v>25558.64081377004</v>
+        <v>11249.56431377004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3192,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="C78" t="n">
-        <v>44.43</v>
+        <v>44.71</v>
       </c>
       <c r="D78" t="n">
-        <v>44.79</v>
+        <v>44.71</v>
       </c>
       <c r="E78" t="n">
-        <v>44.42</v>
+        <v>44.71</v>
       </c>
       <c r="F78" t="n">
-        <v>505</v>
+        <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>25053.64081377004</v>
+        <v>11249.56431377004</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3228,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="C79" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="D79" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="E79" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="F79" t="n">
-        <v>119.54</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
-        <v>25173.18081377004</v>
+        <v>11249.56431377004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3264,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="C80" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="D80" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="E80" t="n">
-        <v>44.52</v>
+        <v>44.71</v>
       </c>
       <c r="F80" t="n">
-        <v>360</v>
+        <v>143</v>
       </c>
       <c r="G80" t="n">
-        <v>24813.18081377004</v>
+        <v>11249.56431377004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3300,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>44.52</v>
+        <v>44.67</v>
       </c>
       <c r="C81" t="n">
-        <v>44.85</v>
+        <v>44.67</v>
       </c>
       <c r="D81" t="n">
-        <v>44.85</v>
+        <v>44.99</v>
       </c>
       <c r="E81" t="n">
-        <v>44.52</v>
+        <v>44.67</v>
       </c>
       <c r="F81" t="n">
-        <v>7538.87577847</v>
+        <v>70</v>
       </c>
       <c r="G81" t="n">
-        <v>32352.05659224004</v>
+        <v>11179.56431377004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3336,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>44.86</v>
+        <v>44.72</v>
       </c>
       <c r="C82" t="n">
-        <v>44.86</v>
+        <v>44.75</v>
       </c>
       <c r="D82" t="n">
-        <v>44.86</v>
+        <v>44.99</v>
       </c>
       <c r="E82" t="n">
-        <v>44.86</v>
+        <v>44.72</v>
       </c>
       <c r="F82" t="n">
-        <v>222.91573785</v>
+        <v>81</v>
       </c>
       <c r="G82" t="n">
-        <v>32574.97233009004</v>
+        <v>11260.56431377004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3372,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>44.86</v>
+        <v>44.68</v>
       </c>
       <c r="C83" t="n">
-        <v>44.86</v>
+        <v>44.99</v>
       </c>
       <c r="D83" t="n">
-        <v>44.86</v>
+        <v>44.99</v>
       </c>
       <c r="E83" t="n">
-        <v>44.86</v>
+        <v>44.68</v>
       </c>
       <c r="F83" t="n">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="G83" t="n">
-        <v>32574.97233009004</v>
+        <v>11355.56431377004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3408,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>44.52</v>
+        <v>44.99</v>
       </c>
       <c r="C84" t="n">
-        <v>44.52</v>
+        <v>44.99</v>
       </c>
       <c r="D84" t="n">
-        <v>44.86</v>
+        <v>44.99</v>
       </c>
       <c r="E84" t="n">
-        <v>44.52</v>
+        <v>44.99</v>
       </c>
       <c r="F84" t="n">
-        <v>275.27</v>
+        <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>32299.70233009004</v>
+        <v>11355.56431377004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3444,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.52</v>
+        <v>44.63</v>
       </c>
       <c r="C85" t="n">
-        <v>44.52</v>
+        <v>44.99</v>
       </c>
       <c r="D85" t="n">
-        <v>44.86</v>
+        <v>44.99</v>
       </c>
       <c r="E85" t="n">
-        <v>44.52</v>
+        <v>44.63</v>
       </c>
       <c r="F85" t="n">
-        <v>223.46</v>
+        <v>312</v>
       </c>
       <c r="G85" t="n">
-        <v>32299.70233009004</v>
+        <v>11355.56431377004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3480,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>44.51</v>
+        <v>44.98</v>
       </c>
       <c r="C86" t="n">
-        <v>44.51</v>
+        <v>44.98</v>
       </c>
       <c r="D86" t="n">
-        <v>44.51</v>
+        <v>44.98</v>
       </c>
       <c r="E86" t="n">
-        <v>44.51</v>
+        <v>44.98</v>
       </c>
       <c r="F86" t="n">
-        <v>121.27</v>
+        <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>32178.43233009004</v>
+        <v>11340.56431377004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3516,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="C87" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="D87" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="E87" t="n">
-        <v>44.78</v>
+        <v>44.71</v>
       </c>
       <c r="F87" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G87" t="n">
-        <v>32228.43233009004</v>
+        <v>11280.56431377004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3552,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>44.52</v>
+        <v>44.97</v>
       </c>
       <c r="C88" t="n">
-        <v>44.53</v>
+        <v>44.97</v>
       </c>
       <c r="D88" t="n">
-        <v>44.77</v>
+        <v>44.97</v>
       </c>
       <c r="E88" t="n">
-        <v>44.52</v>
+        <v>44.97</v>
       </c>
       <c r="F88" t="n">
-        <v>223.5</v>
+        <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>32004.93233009004</v>
+        <v>11300.56431377004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3588,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>44.53</v>
+        <v>44.71</v>
       </c>
       <c r="C89" t="n">
-        <v>44.53</v>
+        <v>44.6</v>
       </c>
       <c r="D89" t="n">
-        <v>44.53</v>
+        <v>44.96</v>
       </c>
       <c r="E89" t="n">
-        <v>44.51</v>
+        <v>44.6</v>
       </c>
       <c r="F89" t="n">
-        <v>323.5</v>
+        <v>221</v>
       </c>
       <c r="G89" t="n">
-        <v>32004.93233009004</v>
+        <v>11079.56431377004</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3624,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>44.62</v>
+        <v>44.9</v>
       </c>
       <c r="C90" t="n">
-        <v>44.6</v>
+        <v>44.9</v>
       </c>
       <c r="D90" t="n">
-        <v>44.77</v>
+        <v>44.9</v>
       </c>
       <c r="E90" t="n">
-        <v>44.54</v>
+        <v>44.9</v>
       </c>
       <c r="F90" t="n">
-        <v>824.4400000000001</v>
+        <v>25</v>
       </c>
       <c r="G90" t="n">
-        <v>32829.37233009004</v>
+        <v>11104.56431377004</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3660,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="C91" t="n">
-        <v>44.7</v>
+        <v>44.57</v>
       </c>
       <c r="D91" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="E91" t="n">
-        <v>44.7</v>
+        <v>44.57</v>
       </c>
       <c r="F91" t="n">
-        <v>41</v>
+        <v>13250.2366</v>
       </c>
       <c r="G91" t="n">
-        <v>32870.37233009004</v>
+        <v>-2145.672286229959</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3696,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>44.54</v>
+        <v>44.47</v>
       </c>
       <c r="C92" t="n">
-        <v>44.7</v>
+        <v>44.57</v>
       </c>
       <c r="D92" t="n">
-        <v>44.7</v>
+        <v>44.57</v>
       </c>
       <c r="E92" t="n">
-        <v>44.54</v>
+        <v>44.47</v>
       </c>
       <c r="F92" t="n">
-        <v>122</v>
+        <v>17414.1005</v>
       </c>
       <c r="G92" t="n">
-        <v>32870.37233009004</v>
+        <v>-2145.672286229959</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3732,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>44.53</v>
+        <v>44.47</v>
       </c>
       <c r="C93" t="n">
-        <v>44.53</v>
+        <v>44.57</v>
       </c>
       <c r="D93" t="n">
-        <v>44.77</v>
+        <v>44.57</v>
       </c>
       <c r="E93" t="n">
-        <v>44.51</v>
+        <v>44.47</v>
       </c>
       <c r="F93" t="n">
-        <v>850.62</v>
+        <v>1607.9312</v>
       </c>
       <c r="G93" t="n">
-        <v>32019.75233009004</v>
+        <v>-2145.672286229959</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3768,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44.51</v>
+        <v>44.57</v>
       </c>
       <c r="C94" t="n">
-        <v>44.51</v>
+        <v>44.57</v>
       </c>
       <c r="D94" t="n">
-        <v>44.51</v>
+        <v>44.57</v>
       </c>
       <c r="E94" t="n">
-        <v>44.51</v>
+        <v>44.57</v>
       </c>
       <c r="F94" t="n">
-        <v>38.0556</v>
+        <v>47</v>
       </c>
       <c r="G94" t="n">
-        <v>31981.69673009004</v>
+        <v>-2145.672286229959</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3804,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>44.53</v>
+        <v>44.41</v>
       </c>
       <c r="C95" t="n">
-        <v>44.57</v>
+        <v>44.41</v>
       </c>
       <c r="D95" t="n">
-        <v>44.76</v>
+        <v>44.41</v>
       </c>
       <c r="E95" t="n">
-        <v>44.51</v>
+        <v>44.4</v>
       </c>
       <c r="F95" t="n">
-        <v>850</v>
+        <v>560</v>
       </c>
       <c r="G95" t="n">
-        <v>32831.69673009004</v>
+        <v>-2705.672286229959</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3840,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>44.51</v>
+        <v>44.38</v>
       </c>
       <c r="C96" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="D96" t="n">
-        <v>44.51</v>
+        <v>44.38</v>
       </c>
       <c r="E96" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="F96" t="n">
-        <v>25000.5521</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>7831.144630090042</v>
+        <v>-2735.672286229959</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3876,28 +3858,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="C97" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="D97" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="E97" t="n">
-        <v>44.3</v>
+        <v>44.38</v>
       </c>
       <c r="F97" t="n">
-        <v>2667.3909</v>
+        <v>45758.2244</v>
       </c>
       <c r="G97" t="n">
-        <v>7831.144630090042</v>
+        <v>-2735.672286229959</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -3912,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>44.2</v>
+        <v>44.39</v>
       </c>
       <c r="C98" t="n">
-        <v>44.1</v>
+        <v>44.39</v>
       </c>
       <c r="D98" t="n">
-        <v>44.2</v>
+        <v>44.39</v>
       </c>
       <c r="E98" t="n">
-        <v>44.1</v>
+        <v>44.39</v>
       </c>
       <c r="F98" t="n">
-        <v>11600</v>
+        <v>12000</v>
       </c>
       <c r="G98" t="n">
-        <v>-3768.855369909958</v>
+        <v>9264.327713770041</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3948,28 +3930,28 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>44.2</v>
+        <v>44.57</v>
       </c>
       <c r="C99" t="n">
-        <v>44.2</v>
+        <v>44.57</v>
       </c>
       <c r="D99" t="n">
-        <v>44.2</v>
+        <v>44.57</v>
       </c>
       <c r="E99" t="n">
-        <v>44.2</v>
+        <v>44.57</v>
       </c>
       <c r="F99" t="n">
-        <v>301.755</v>
+        <v>12</v>
       </c>
       <c r="G99" t="n">
-        <v>-3467.100369909957</v>
+        <v>9276.327713770041</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3984,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>44.1</v>
+        <v>44.57</v>
       </c>
       <c r="C100" t="n">
-        <v>44.1</v>
+        <v>44.57</v>
       </c>
       <c r="D100" t="n">
-        <v>44.1</v>
+        <v>44.57</v>
       </c>
       <c r="E100" t="n">
-        <v>44.1</v>
+        <v>44.57</v>
       </c>
       <c r="F100" t="n">
-        <v>10600</v>
+        <v>21400</v>
       </c>
       <c r="G100" t="n">
-        <v>-14067.10036990996</v>
+        <v>9276.327713770041</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4020,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>44.2</v>
+        <v>44.41</v>
       </c>
       <c r="C101" t="n">
-        <v>44.1</v>
+        <v>44.43</v>
       </c>
       <c r="D101" t="n">
-        <v>44.2</v>
+        <v>44.56</v>
       </c>
       <c r="E101" t="n">
-        <v>44.1</v>
+        <v>44.41</v>
       </c>
       <c r="F101" t="n">
-        <v>30065.9216</v>
+        <v>353</v>
       </c>
       <c r="G101" t="n">
-        <v>-14067.10036990996</v>
+        <v>8923.327713770041</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4056,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="C102" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="D102" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="E102" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="F102" t="n">
-        <v>10060.4375</v>
+        <v>17415.9862</v>
       </c>
       <c r="G102" t="n">
-        <v>-4006.662869909956</v>
+        <v>26339.31391377004</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4092,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>44.11</v>
+        <v>44.45</v>
       </c>
       <c r="C103" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="D103" t="n">
-        <v>44.11</v>
+        <v>44.57</v>
       </c>
       <c r="E103" t="n">
-        <v>44.11</v>
+        <v>44.45</v>
       </c>
       <c r="F103" t="n">
-        <v>126.8988</v>
+        <v>260</v>
       </c>
       <c r="G103" t="n">
-        <v>-4006.662869909956</v>
+        <v>26339.31391377004</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4128,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="C104" t="n">
-        <v>44.05</v>
+        <v>44.4</v>
       </c>
       <c r="D104" t="n">
-        <v>44.1</v>
+        <v>44.4</v>
       </c>
       <c r="E104" t="n">
-        <v>44.05</v>
+        <v>44.4</v>
       </c>
       <c r="F104" t="n">
-        <v>12000</v>
+        <v>276.6731</v>
       </c>
       <c r="G104" t="n">
-        <v>-16006.66286990996</v>
+        <v>26062.64081377004</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4164,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>44.01</v>
+        <v>44.79</v>
       </c>
       <c r="C105" t="n">
-        <v>43.94</v>
+        <v>44.79</v>
       </c>
       <c r="D105" t="n">
-        <v>44.01</v>
+        <v>44.79</v>
       </c>
       <c r="E105" t="n">
-        <v>43.94</v>
+        <v>44.79</v>
       </c>
       <c r="F105" t="n">
-        <v>52494.1151</v>
+        <v>120</v>
       </c>
       <c r="G105" t="n">
-        <v>-68500.77796990996</v>
+        <v>26182.64081377004</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4200,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>43.94</v>
+        <v>44.51</v>
       </c>
       <c r="C106" t="n">
-        <v>43.94</v>
+        <v>44.52</v>
       </c>
       <c r="D106" t="n">
-        <v>43.94</v>
+        <v>44.79</v>
       </c>
       <c r="E106" t="n">
-        <v>43.94</v>
+        <v>44.51</v>
       </c>
       <c r="F106" t="n">
-        <v>3001</v>
+        <v>624</v>
       </c>
       <c r="G106" t="n">
-        <v>-68500.77796990996</v>
+        <v>25558.64081377004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4236,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>43.94</v>
+        <v>44.52</v>
       </c>
       <c r="C107" t="n">
-        <v>43.94</v>
+        <v>44.43</v>
       </c>
       <c r="D107" t="n">
-        <v>43.94</v>
+        <v>44.79</v>
       </c>
       <c r="E107" t="n">
-        <v>43.94</v>
+        <v>44.42</v>
       </c>
       <c r="F107" t="n">
-        <v>154.4009</v>
+        <v>505</v>
       </c>
       <c r="G107" t="n">
-        <v>-68500.77796990996</v>
+        <v>25053.64081377004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4272,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>43.99</v>
+        <v>44.78</v>
       </c>
       <c r="C108" t="n">
-        <v>44.5</v>
+        <v>44.78</v>
       </c>
       <c r="D108" t="n">
-        <v>44.5</v>
+        <v>44.78</v>
       </c>
       <c r="E108" t="n">
-        <v>43.99</v>
+        <v>44.78</v>
       </c>
       <c r="F108" t="n">
-        <v>29065.5319</v>
+        <v>119.54</v>
       </c>
       <c r="G108" t="n">
-        <v>-39435.24606990996</v>
+        <v>25173.18081377004</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4308,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>44.9</v>
+        <v>44.52</v>
       </c>
       <c r="C109" t="n">
-        <v>44.9</v>
+        <v>44.52</v>
       </c>
       <c r="D109" t="n">
-        <v>44.9</v>
+        <v>44.52</v>
       </c>
       <c r="E109" t="n">
-        <v>44.9</v>
+        <v>44.52</v>
       </c>
       <c r="F109" t="n">
-        <v>524.7918</v>
+        <v>360</v>
       </c>
       <c r="G109" t="n">
-        <v>-38910.45426990996</v>
+        <v>24813.18081377004</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4344,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>44.92</v>
+        <v>44.52</v>
       </c>
       <c r="C110" t="n">
-        <v>44.92</v>
+        <v>44.85</v>
       </c>
       <c r="D110" t="n">
-        <v>44.92</v>
+        <v>44.85</v>
       </c>
       <c r="E110" t="n">
-        <v>44.92</v>
+        <v>44.52</v>
       </c>
       <c r="F110" t="n">
-        <v>250.8616</v>
+        <v>7538.87577847</v>
       </c>
       <c r="G110" t="n">
-        <v>-38659.59266990997</v>
+        <v>32352.05659224004</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4380,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>45.21</v>
+        <v>44.86</v>
       </c>
       <c r="C111" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="D111" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="E111" t="n">
-        <v>45.21</v>
+        <v>44.86</v>
       </c>
       <c r="F111" t="n">
-        <v>664.3797</v>
+        <v>222.91573785</v>
       </c>
       <c r="G111" t="n">
-        <v>-37995.21296990997</v>
+        <v>32574.97233009004</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4416,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="C112" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="D112" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="E112" t="n">
-        <v>45.4</v>
+        <v>44.86</v>
       </c>
       <c r="F112" t="n">
-        <v>95.6695</v>
+        <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>-37995.21296990997</v>
+        <v>32574.97233009004</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4452,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>45.4</v>
+        <v>44.52</v>
       </c>
       <c r="C113" t="n">
-        <v>45.77</v>
+        <v>44.52</v>
       </c>
       <c r="D113" t="n">
-        <v>45.77</v>
+        <v>44.86</v>
       </c>
       <c r="E113" t="n">
-        <v>45.3</v>
+        <v>44.52</v>
       </c>
       <c r="F113" t="n">
-        <v>20510.7539</v>
+        <v>275.27</v>
       </c>
       <c r="G113" t="n">
-        <v>-17484.45906990997</v>
+        <v>32299.70233009004</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4488,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>45.7</v>
+        <v>44.52</v>
       </c>
       <c r="C114" t="n">
-        <v>45.77</v>
+        <v>44.52</v>
       </c>
       <c r="D114" t="n">
-        <v>45.77</v>
+        <v>44.86</v>
       </c>
       <c r="E114" t="n">
-        <v>45.7</v>
+        <v>44.52</v>
       </c>
       <c r="F114" t="n">
-        <v>7700</v>
+        <v>223.46</v>
       </c>
       <c r="G114" t="n">
-        <v>-17484.45906990997</v>
+        <v>32299.70233009004</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4524,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>45.76</v>
+        <v>44.51</v>
       </c>
       <c r="C115" t="n">
-        <v>45.76</v>
+        <v>44.51</v>
       </c>
       <c r="D115" t="n">
-        <v>45.76</v>
+        <v>44.51</v>
       </c>
       <c r="E115" t="n">
-        <v>45.76</v>
+        <v>44.51</v>
       </c>
       <c r="F115" t="n">
-        <v>500</v>
+        <v>121.27</v>
       </c>
       <c r="G115" t="n">
-        <v>-17984.45906990997</v>
+        <v>32178.43233009004</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4560,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>45.6</v>
+        <v>44.78</v>
       </c>
       <c r="C116" t="n">
-        <v>45.6</v>
+        <v>44.78</v>
       </c>
       <c r="D116" t="n">
-        <v>45.6</v>
+        <v>44.78</v>
       </c>
       <c r="E116" t="n">
-        <v>45.6</v>
+        <v>44.78</v>
       </c>
       <c r="F116" t="n">
-        <v>386.3037</v>
+        <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>-18370.76276990997</v>
+        <v>32228.43233009004</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4596,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>45.6</v>
+        <v>44.52</v>
       </c>
       <c r="C117" t="n">
-        <v>45.6</v>
+        <v>44.53</v>
       </c>
       <c r="D117" t="n">
-        <v>45.6</v>
+        <v>44.77</v>
       </c>
       <c r="E117" t="n">
-        <v>45.6</v>
+        <v>44.52</v>
       </c>
       <c r="F117" t="n">
-        <v>358.6449</v>
+        <v>223.5</v>
       </c>
       <c r="G117" t="n">
-        <v>-18370.76276990997</v>
+        <v>32004.93233009004</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4632,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>45.59</v>
+        <v>44.53</v>
       </c>
       <c r="C118" t="n">
-        <v>45.59</v>
+        <v>44.53</v>
       </c>
       <c r="D118" t="n">
-        <v>45.59</v>
+        <v>44.53</v>
       </c>
       <c r="E118" t="n">
-        <v>45.59</v>
+        <v>44.51</v>
       </c>
       <c r="F118" t="n">
-        <v>673.9031</v>
+        <v>323.5</v>
       </c>
       <c r="G118" t="n">
-        <v>-19044.66586990997</v>
+        <v>32004.93233009004</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4668,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>45.46</v>
+        <v>44.62</v>
       </c>
       <c r="C119" t="n">
-        <v>45.45</v>
+        <v>44.6</v>
       </c>
       <c r="D119" t="n">
-        <v>45.46</v>
+        <v>44.77</v>
       </c>
       <c r="E119" t="n">
-        <v>45.45</v>
+        <v>44.54</v>
       </c>
       <c r="F119" t="n">
-        <v>20932.7595</v>
+        <v>824.4400000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>-39977.42536990996</v>
+        <v>32829.37233009004</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4704,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>45.59</v>
+        <v>44.7</v>
       </c>
       <c r="C120" t="n">
-        <v>45.59</v>
+        <v>44.7</v>
       </c>
       <c r="D120" t="n">
-        <v>45.59</v>
+        <v>44.7</v>
       </c>
       <c r="E120" t="n">
-        <v>45.59</v>
+        <v>44.7</v>
       </c>
       <c r="F120" t="n">
-        <v>662.4242</v>
+        <v>41</v>
       </c>
       <c r="G120" t="n">
-        <v>-39315.00116990996</v>
+        <v>32870.37233009004</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4740,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>45.6</v>
+        <v>44.54</v>
       </c>
       <c r="C121" t="n">
-        <v>45.6</v>
+        <v>44.7</v>
       </c>
       <c r="D121" t="n">
-        <v>45.6</v>
+        <v>44.7</v>
       </c>
       <c r="E121" t="n">
-        <v>45.6</v>
+        <v>44.54</v>
       </c>
       <c r="F121" t="n">
-        <v>2413.617</v>
+        <v>122</v>
       </c>
       <c r="G121" t="n">
-        <v>-36901.38416990996</v>
+        <v>32870.37233009004</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4776,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>45.6</v>
+        <v>44.53</v>
       </c>
       <c r="C122" t="n">
-        <v>45.6</v>
+        <v>44.53</v>
       </c>
       <c r="D122" t="n">
-        <v>45.6</v>
+        <v>44.77</v>
       </c>
       <c r="E122" t="n">
-        <v>45.6</v>
+        <v>44.51</v>
       </c>
       <c r="F122" t="n">
-        <v>1075.2705</v>
+        <v>850.62</v>
       </c>
       <c r="G122" t="n">
-        <v>-36901.38416990996</v>
+        <v>32019.75233009004</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4812,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>45.6</v>
+        <v>44.51</v>
       </c>
       <c r="C123" t="n">
-        <v>46.09</v>
+        <v>44.51</v>
       </c>
       <c r="D123" t="n">
-        <v>46.09</v>
+        <v>44.51</v>
       </c>
       <c r="E123" t="n">
-        <v>45.6</v>
+        <v>44.51</v>
       </c>
       <c r="F123" t="n">
-        <v>2200</v>
+        <v>38.0556</v>
       </c>
       <c r="G123" t="n">
-        <v>-34701.38416990996</v>
+        <v>31981.69673009004</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4848,28 +4830,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>46.11</v>
+        <v>44.53</v>
       </c>
       <c r="C124" t="n">
-        <v>46.54</v>
+        <v>44.57</v>
       </c>
       <c r="D124" t="n">
-        <v>46.54</v>
+        <v>44.76</v>
       </c>
       <c r="E124" t="n">
-        <v>46.11</v>
+        <v>44.51</v>
       </c>
       <c r="F124" t="n">
-        <v>3731.778</v>
+        <v>850</v>
       </c>
       <c r="G124" t="n">
-        <v>-30969.60616990997</v>
+        <v>32831.69673009004</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4879,6 +4861,1086 @@
       </c>
       <c r="N124" t="inlineStr"/>
     </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="C125" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="D125" t="n">
+        <v>44.51</v>
+      </c>
+      <c r="E125" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="F125" t="n">
+        <v>25000.5521</v>
+      </c>
+      <c r="G125" t="n">
+        <v>7831.144630090042</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2667.3909</v>
+      </c>
+      <c r="G126" t="n">
+        <v>7831.144630090042</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>11600</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-3768.855369909958</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C128" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>301.755</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-3467.100369909957</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10600</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-14067.10036990996</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="C130" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>44.2</v>
+      </c>
+      <c r="E130" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>30065.9216</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-14067.10036990996</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="C131" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="D131" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="E131" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10060.4375</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-4006.662869909956</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="C132" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="D132" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="E132" t="n">
+        <v>44.11</v>
+      </c>
+      <c r="F132" t="n">
+        <v>126.8988</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-4006.662869909956</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="D133" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>44.05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-16006.66286990996</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="C134" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="D134" t="n">
+        <v>44.01</v>
+      </c>
+      <c r="E134" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="F134" t="n">
+        <v>52494.1151</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-68500.77796990996</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="C135" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="D135" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="E135" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3001</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-68500.77796990996</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="C136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="D136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="E136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="F136" t="n">
+        <v>154.4009</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-68500.77796990996</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="K136" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="C137" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="E137" t="n">
+        <v>43.99</v>
+      </c>
+      <c r="F137" t="n">
+        <v>29065.5319</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-39435.24606990996</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="K137" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="C138" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="F138" t="n">
+        <v>524.7918</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-38910.45426990996</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="K138" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="C139" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="D139" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="E139" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="F139" t="n">
+        <v>250.8616</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-38659.59266990997</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="K139" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="C140" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>45.21</v>
+      </c>
+      <c r="F140" t="n">
+        <v>664.3797</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-37995.21296990997</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>95.6695</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-37995.21296990997</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="D142" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="E142" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20510.7539</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-17484.45906990997</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C143" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="D143" t="n">
+        <v>45.77</v>
+      </c>
+      <c r="E143" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>7700</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-17484.45906990997</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="C144" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="D144" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="E144" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="F144" t="n">
+        <v>500</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-17984.45906990997</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C145" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D145" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F145" t="n">
+        <v>386.3037</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-18370.76276990997</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C146" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D146" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F146" t="n">
+        <v>358.6449</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-18370.76276990997</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="C147" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="D147" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="E147" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="F147" t="n">
+        <v>673.9031</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-19044.66586990997</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="C148" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="D148" t="n">
+        <v>45.46</v>
+      </c>
+      <c r="E148" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="F148" t="n">
+        <v>20932.7595</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-39977.42536990996</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="C149" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="D149" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="E149" t="n">
+        <v>45.59</v>
+      </c>
+      <c r="F149" t="n">
+        <v>662.4242</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-39315.00116990996</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>2413.617</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-36901.38416990996</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C151" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D151" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="E151" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1075.2705</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-36901.38416990996</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C152" t="n">
+        <v>46.09</v>
+      </c>
+      <c r="D152" t="n">
+        <v>46.09</v>
+      </c>
+      <c r="E152" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-34701.38416990996</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="C153" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="D153" t="n">
+        <v>46.54</v>
+      </c>
+      <c r="E153" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3731.778</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-30969.60616990997</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-45557.30756074</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>-45543.39636073999</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-75070.04086073999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-114825.64516074</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-115366.34906074</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-104768.34906074</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-69106.86376073997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-56795.40697733997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-108640.18417734</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>-107437.04187734</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-92353.04187733996</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,21 @@
         <v>25053.64081377004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>44.52</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3957,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3994,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4031,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4068,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4105,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4142,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4179,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4216,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4253,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4290,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4327,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4364,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4401,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4438,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4475,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4512,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4549,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4586,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4623,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4660,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4697,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4734,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5064,18 +4769,21 @@
         <v>-14067.10036990996</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5100,18 +4808,21 @@
         <v>-4006.662869909956</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5136,18 +4847,21 @@
         <v>-4006.662869909956</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>44.11</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5172,18 +4886,21 @@
         <v>-16006.66286990996</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>44.11</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4925,21 @@
         <v>-68500.77796990996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>44.05</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4964,21 @@
         <v>-68500.77796990996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>43.94</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,22 +5003,19 @@
         <v>-68500.77796990996</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="K136" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5320,26 +5040,19 @@
         <v>-39435.24606990996</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="K137" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5364,26 +5077,19 @@
         <v>-38910.45426990996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="K138" t="n">
-        <v>43.94</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5408,22 +5114,19 @@
         <v>-38659.59266990997</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="K139" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5450,22 +5153,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5492,22 +5190,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5534,16 +5227,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5570,16 +5264,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5606,16 +5301,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5642,16 +5338,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5678,16 +5375,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5714,16 +5412,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5750,16 +5449,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5786,16 +5486,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5822,16 +5523,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5858,16 +5560,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5894,16 +5597,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5928,20 +5632,19 @@
         <v>-30969.60616990997</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-77489.13746073999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-65489.13746073999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-45557.30756074</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-45543.39636073999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-75070.04086073999</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-114825.64516074</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-115366.34906074</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-104768.34906074</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-69106.86376073997</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-69076.36157733997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-56795.40697733997</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-108640.18417734</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-107437.04187734</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-92353.04187733996</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2299,10 +2299,14 @@
         <v>-106811.57208623</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="J58" t="n">
+        <v>44.54</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2335,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2375,19 @@
         <v>-101359.91568623</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,10 +2416,14 @@
         <v>-100629.41028623</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="J61" t="n">
+        <v>44.37</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2431,11 +2453,19 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2497,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -3091,10 +3127,14 @@
         <v>11260.56431377004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="J82" t="n">
+        <v>44.67</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
@@ -3127,8 +3167,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3206,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3553,10 +3605,14 @@
         <v>-2735.672286229959</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="J96" t="n">
+        <v>44.41</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3586,11 +3642,19 @@
         <v>-2735.672286229959</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3683,19 @@
         <v>9264.327713770041</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>44.38</v>
+      </c>
+      <c r="J98" t="n">
+        <v>44.41</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,10 +3724,14 @@
         <v>9276.327713770041</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="J99" t="n">
+        <v>44.39</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3685,11 +3761,19 @@
         <v>9276.327713770041</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>44.57</v>
+      </c>
+      <c r="J100" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3805,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>44.39</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3916,17 +4006,11 @@
         <v>25053.64081377004</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>44.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3959,11 +4043,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3996,11 +4076,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4109,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +4142,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4107,11 +4175,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4144,11 +4208,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +4241,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4274,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4255,11 +4307,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4292,11 +4340,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4329,11 +4373,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +4406,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4439,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4436,15 +4468,11 @@
         <v>32870.37233009004</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4505,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4514,11 +4538,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4551,11 +4571,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4588,11 +4604,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4621,15 +4633,11 @@
         <v>7831.144630090042</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4662,11 +4670,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4695,15 +4699,11 @@
         <v>-3467.100369909957</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4732,15 +4732,11 @@
         <v>-14067.10036990996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4769,17 +4765,11 @@
         <v>-14067.10036990996</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
-      </c>
-      <c r="I130" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4808,17 +4798,11 @@
         <v>-4006.662869909956</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>44.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4847,17 +4831,11 @@
         <v>-4006.662869909956</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>44.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4886,17 +4864,11 @@
         <v>-16006.66286990996</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>44.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4925,17 +4897,11 @@
         <v>-68500.77796990996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>44.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4964,17 +4930,11 @@
         <v>-68500.77796990996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>43.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5007,11 +4967,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5044,11 +5000,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5081,11 +5033,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5118,11 +5066,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5155,11 +5099,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +5132,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +5165,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +5198,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5231,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5336,15 +5260,11 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5373,15 +5293,11 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5410,15 +5326,11 @@
         <v>-19044.66586990997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5447,15 +5359,11 @@
         <v>-39977.42536990996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5484,15 +5392,11 @@
         <v>-39315.00116990996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5521,15 +5425,11 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5558,15 +5458,11 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5595,15 +5491,11 @@
         <v>-34701.38416990996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5632,19 +5524,17 @@
         <v>-30969.60616990997</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
       <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-77489.13746073999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-65489.13746073999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-45557.30756074</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-45543.39636073999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-75070.04086073999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-114825.64516074</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-115366.34906074</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-104768.34906074</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-69106.86376073997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-69076.36157733997</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-98246.75138622997</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-98942.77958622997</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-103198.80498623</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-104285.76148623</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-101305.47188623</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-102904.25128623</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-93104.25128622996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-130504.25128623</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-129220.31178623</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-128683.31178623</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,14 +2299,10 @@
         <v>-106811.57208623</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>44.54</v>
-      </c>
-      <c r="J58" t="n">
-        <v>44.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
@@ -2339,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>44.54</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2375,19 +2365,11 @@
         <v>-101359.91568623</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="J60" t="n">
-        <v>44.54</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2416,14 +2398,10 @@
         <v>-100629.41028623</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>44.37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2453,19 +2431,11 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>44.5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2497,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -3028,10 +2992,14 @@
         <v>11249.56431377004</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J79" t="n">
+        <v>44.71</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
@@ -3064,8 +3032,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3068,19 @@
         <v>11179.56431377004</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J81" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3133,9 +3115,13 @@
         <v>44.67</v>
       </c>
       <c r="J82" t="n">
-        <v>44.67</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+        <v>44.71</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3164,15 +3150,17 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>44.75</v>
+      </c>
       <c r="J83" t="n">
-        <v>44.67</v>
+        <v>44.71</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L83" t="n">
@@ -3203,15 +3191,17 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>44.99</v>
+      </c>
       <c r="J84" t="n">
-        <v>44.67</v>
+        <v>44.71</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L84" t="n">
@@ -3245,8 +3235,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3278,8 +3274,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3311,8 +3313,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3344,8 +3352,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3377,8 +3391,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3410,8 +3430,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3443,8 +3469,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3476,8 +3508,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3509,8 +3547,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3542,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3575,8 +3625,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3605,15 +3661,17 @@
         <v>-2735.672286229959</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>44.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>44.41</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>44.71</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3642,17 +3700,15 @@
         <v>-2735.672286229959</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>44.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>44.41</v>
+        <v>44.71</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3683,17 +3739,15 @@
         <v>9264.327713770041</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>44.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>44.41</v>
+        <v>44.71</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3724,15 +3778,17 @@
         <v>9276.327713770041</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>44.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>44.39</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>44.71</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3761,17 +3817,15 @@
         <v>9276.327713770041</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>44.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>44.39</v>
+        <v>44.71</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3806,11 +3860,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>44.39</v>
+        <v>44.71</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3844,8 +3898,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3877,8 +3937,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3910,8 +3976,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3943,8 +4015,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3976,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4009,8 +4093,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4042,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4075,8 +4171,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4108,8 +4210,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4141,8 +4249,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4174,8 +4288,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4207,8 +4327,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4240,8 +4366,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4273,8 +4405,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4306,8 +4444,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4339,8 +4483,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4372,8 +4522,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4405,8 +4561,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4438,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4468,11 +4636,17 @@
         <v>32870.37233009004</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4504,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4537,8 +4717,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4570,8 +4756,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4603,8 +4795,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4633,11 +4831,17 @@
         <v>7831.144630090042</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4669,8 +4873,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4699,11 +4909,17 @@
         <v>-3467.100369909957</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4948,17 @@
         <v>-14067.10036990996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4768,8 +4990,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4801,8 +5029,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4834,8 +5068,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4867,8 +5107,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4900,8 +5146,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4933,8 +5185,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4966,8 +5224,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4999,8 +5263,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5032,8 +5302,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5065,8 +5341,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5098,8 +5380,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5131,8 +5419,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5164,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5194,13 +5494,19 @@
         <v>-17484.45906990997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>1.018708342652651</v>
       </c>
       <c r="M143" t="inlineStr"/>
     </row>
@@ -5227,7 +5533,7 @@
         <v>-17984.45906990997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5535,6 +5841,6 @@
       <c r="M153" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -451,7 +451,7 @@
         <v>-77489.13746073999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-65489.13746073999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-32954.19106073999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-33954.19106073999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-45557.30756074</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-44443.39636073999</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-44432.47686073999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-44443.44186073999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-74606.60966073998</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-70949.14116073998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-71199.22156073998</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-83399.22156073998</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-75070.04086073999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-114825.64516074</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-115366.34906074</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-56076.36157733997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-56795.40697733997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-108640.18417734</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-107470.18417734</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-98246.75138622997</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-98942.77958622997</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-95941.87938622996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-103198.80498623</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-104285.76148623</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-101305.47188623</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-102904.25128623</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-93104.25128622996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-130504.25128623</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-129220.31178623</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-128683.31178623</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2365,10 +2365,14 @@
         <v>-101359.91568623</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="J60" t="n">
+        <v>44.31</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2398,11 +2402,19 @@
         <v>-100629.41028623</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>44.37</v>
+      </c>
+      <c r="J61" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2443,19 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2484,19 @@
         <v>-95675.99778622996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2528,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2567,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2606,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2645,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2723,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2762,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2801,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2840,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +2879,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2918,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2957,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2996,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3035,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3074,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,15 +3110,17 @@
         <v>11249.56431377004</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>44.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>44.71</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+        <v>44.31</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3033,11 +3153,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L80" t="n">
@@ -3068,17 +3188,15 @@
         <v>11179.56431377004</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>44.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L81" t="n">
@@ -3109,13 +3227,11 @@
         <v>11260.56431377004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>44.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3150,13 +3266,11 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>44.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3191,13 +3305,11 @@
         <v>11355.56431377004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>44.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3236,7 +3348,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3275,7 +3387,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3314,7 +3426,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3353,7 +3465,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3392,7 +3504,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3431,7 +3543,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3470,7 +3582,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3509,7 +3621,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3548,7 +3660,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3587,7 +3699,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3626,7 +3738,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3665,7 +3777,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3704,7 +3816,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3743,7 +3855,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3782,7 +3894,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3821,7 +3933,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3860,7 +3972,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3899,7 +4011,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3938,7 +4050,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -3977,7 +4089,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4016,7 +4128,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4055,7 +4167,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4094,7 +4206,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4133,7 +4245,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4172,7 +4284,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4211,7 +4323,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4250,7 +4362,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4289,7 +4401,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4328,7 +4440,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4367,7 +4479,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4406,7 +4518,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4445,7 +4557,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4484,7 +4596,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4523,7 +4635,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4562,7 +4674,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4601,7 +4713,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4640,7 +4752,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4679,7 +4791,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4718,7 +4830,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4757,7 +4869,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4796,7 +4908,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4835,7 +4947,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4874,7 +4986,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4913,7 +5025,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4952,7 +5064,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4991,7 +5103,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5030,7 +5142,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5069,7 +5181,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5108,7 +5220,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5147,7 +5259,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5186,7 +5298,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5225,7 +5337,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5264,7 +5376,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5303,7 +5415,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5342,7 +5454,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5381,7 +5493,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5420,7 +5532,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5459,7 +5571,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5494,19 +5606,19 @@
         <v>-17484.45906990997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>44.71</v>
+        <v>44.31</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.018708342652651</v>
+        <v>1</v>
       </c>
       <c r="M143" t="inlineStr"/>
     </row>
@@ -5533,11 +5645,17 @@
         <v>-17984.45906990997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5684,17 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5599,11 +5723,17 @@
         <v>-18370.76276990997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5632,11 +5762,17 @@
         <v>-19044.66586990997</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5665,11 +5801,17 @@
         <v>-39977.42536990996</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5840,17 @@
         <v>-39315.00116990996</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +5879,17 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5918,17 @@
         <v>-36901.38416990996</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5957,17 @@
         <v>-34701.38416990996</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +5996,17 @@
         <v>-30969.60616990997</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-25 BackTest XEM.xlsx
+++ b/BackTest/2020-01-25 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>317.5716</v>
       </c>
       <c r="G2" t="n">
-        <v>-77489.13746073999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12000</v>
       </c>
       <c r="G3" t="n">
-        <v>-65489.13746073999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>32534.9464</v>
       </c>
       <c r="G4" t="n">
-        <v>-32954.19106073999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>24061.9422</v>
       </c>
       <c r="G5" t="n">
-        <v>-32954.19106073999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>-33954.19106073999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>11603.1165</v>
       </c>
       <c r="G7" t="n">
-        <v>-45557.30756074</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>13.9112</v>
       </c>
       <c r="G8" t="n">
-        <v>-45543.39636073999</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1100</v>
       </c>
       <c r="G9" t="n">
-        <v>-44443.39636073999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>-44443.39636073999</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>0.2344</v>
       </c>
       <c r="G11" t="n">
-        <v>-44443.39636073999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10.9195</v>
       </c>
       <c r="G12" t="n">
-        <v>-44432.47686073999</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>10.965</v>
       </c>
       <c r="G13" t="n">
-        <v>-44443.44186073999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>30163.1678</v>
       </c>
       <c r="G14" t="n">
-        <v>-74606.60966073998</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3657.4685</v>
       </c>
       <c r="G15" t="n">
-        <v>-70949.14116073998</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>250.0804</v>
       </c>
       <c r="G16" t="n">
-        <v>-71199.22156073998</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>12200</v>
       </c>
       <c r="G17" t="n">
-        <v>-83399.22156073998</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>8329.180700000001</v>
       </c>
       <c r="G18" t="n">
-        <v>-75070.04086073999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>39755.6043</v>
       </c>
       <c r="G19" t="n">
-        <v>-114825.64516074</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>540.7039</v>
       </c>
       <c r="G20" t="n">
-        <v>-115366.34906074</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10598</v>
       </c>
       <c r="G21" t="n">
-        <v>-104768.34906074</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>35661.4853</v>
       </c>
       <c r="G22" t="n">
-        <v>-69106.86376073997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>30.5021834</v>
       </c>
       <c r="G23" t="n">
-        <v>-69076.36157733997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>13000</v>
       </c>
       <c r="G24" t="n">
-        <v>-56076.36157733997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>19800</v>
       </c>
       <c r="G25" t="n">
-        <v>-56076.36157733997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>719.0454</v>
       </c>
       <c r="G26" t="n">
-        <v>-56795.40697733997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>51844.7772</v>
       </c>
       <c r="G27" t="n">
-        <v>-108640.18417734</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>1170</v>
       </c>
       <c r="G28" t="n">
-        <v>-107470.18417734</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>33.1423</v>
       </c>
       <c r="G29" t="n">
-        <v>-107437.04187734</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>7023</v>
       </c>
       <c r="G30" t="n">
-        <v>-100414.04187734</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>8061</v>
       </c>
       <c r="G31" t="n">
-        <v>-92353.04187733996</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>2529</v>
       </c>
       <c r="G32" t="n">
-        <v>-94882.04187733996</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>540</v>
       </c>
       <c r="G33" t="n">
-        <v>-95422.04187733996</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>773.1833</v>
       </c>
       <c r="G34" t="n">
-        <v>-96195.22517733996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2277.1758</v>
       </c>
       <c r="G35" t="n">
-        <v>-96195.22517733996</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>5572.0794</v>
       </c>
       <c r="G36" t="n">
-        <v>-101767.30457734</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>3520.55319111</v>
       </c>
       <c r="G37" t="n">
-        <v>-98246.75138622997</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>696.0282</v>
       </c>
       <c r="G38" t="n">
-        <v>-98942.77958622997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>3000.9002</v>
       </c>
       <c r="G39" t="n">
-        <v>-95941.87938622996</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>742.7404</v>
       </c>
       <c r="G40" t="n">
-        <v>-95941.87938622996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>152.5447</v>
       </c>
       <c r="G41" t="n">
-        <v>-96094.42408622996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>57.2414</v>
       </c>
       <c r="G42" t="n">
-        <v>-96151.66548622996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1246.1563</v>
       </c>
       <c r="G43" t="n">
-        <v>-97397.82178622996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>5800.9832</v>
       </c>
       <c r="G44" t="n">
-        <v>-103198.80498623</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1086.9565</v>
       </c>
       <c r="G45" t="n">
-        <v>-104285.76148623</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>635.7734</v>
       </c>
       <c r="G46" t="n">
-        <v>-103649.98808623</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>2344.5162</v>
       </c>
       <c r="G47" t="n">
-        <v>-101305.47188623</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>768.7953</v>
       </c>
       <c r="G48" t="n">
-        <v>-101305.47188623</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>1598.7794</v>
       </c>
       <c r="G49" t="n">
-        <v>-102904.25128623</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>9800</v>
       </c>
       <c r="G50" t="n">
-        <v>-93104.25128622996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>7400</v>
       </c>
       <c r="G51" t="n">
-        <v>-100504.25128623</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>30000</v>
       </c>
       <c r="G52" t="n">
-        <v>-130504.25128623</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>1283.9395</v>
       </c>
       <c r="G53" t="n">
-        <v>-129220.31178623</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>537</v>
       </c>
       <c r="G54" t="n">
-        <v>-128683.31178623</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,19 @@
         <v>103.4347</v>
       </c>
       <c r="G55" t="n">
-        <v>-128683.31178623</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>44.09</v>
+      </c>
+      <c r="I55" t="n">
+        <v>44.09</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2067,23 @@
         <v>727.3621000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-127955.94968623</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>44.09</v>
+      </c>
+      <c r="I56" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2105,23 @@
         <v>21835.6306</v>
       </c>
       <c r="G57" t="n">
-        <v>-106120.31908623</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>44.2</v>
+      </c>
+      <c r="I57" t="n">
+        <v>44.09</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,19 @@
         <v>691.253</v>
       </c>
       <c r="G58" t="n">
-        <v>-106811.57208623</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>44.54</v>
+      </c>
+      <c r="I58" t="n">
+        <v>44.54</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2177,21 @@
         <v>1423.1811</v>
       </c>
       <c r="G59" t="n">
-        <v>-105388.39098623</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>44.54</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,22 +2213,23 @@
         <v>4028.4753</v>
       </c>
       <c r="G60" t="n">
-        <v>-101359.91568623</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>44.31</v>
       </c>
       <c r="I60" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="J60" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>44.54</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2399,26 +2251,15 @@
         <v>730.5054</v>
       </c>
       <c r="G61" t="n">
-        <v>-100629.41028623</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>44.37</v>
-      </c>
-      <c r="J61" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2440,26 +2281,19 @@
         <v>4953.4125</v>
       </c>
       <c r="G62" t="n">
-        <v>-95675.99778622996</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>44.5</v>
       </c>
       <c r="I62" t="n">
         <v>44.5</v>
       </c>
-      <c r="J62" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2481,26 +2315,21 @@
         <v>34975.6914</v>
       </c>
       <c r="G63" t="n">
-        <v>-95675.99778622996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>44.5</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2522,24 +2351,23 @@
         <v>9000</v>
       </c>
       <c r="G64" t="n">
-        <v>-95675.99778622996</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>44.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2561,24 +2389,23 @@
         <v>19600</v>
       </c>
       <c r="G65" t="n">
-        <v>-95675.99778622996</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>44.6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2600,24 +2427,23 @@
         <v>51782.0021</v>
       </c>
       <c r="G66" t="n">
-        <v>-43893.99568622996</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>44.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2639,24 +2465,23 @@
         <v>547.644</v>
       </c>
       <c r="G67" t="n">
-        <v>-43893.99568622996</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>44.7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2678,24 +2503,21 @@
         <v>15465.9345</v>
       </c>
       <c r="G68" t="n">
-        <v>-28428.06118622996</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2717,24 +2539,21 @@
         <v>319.9696</v>
       </c>
       <c r="G69" t="n">
-        <v>-28748.03078622996</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2756,24 +2575,21 @@
         <v>1072.2299</v>
       </c>
       <c r="G70" t="n">
-        <v>-28748.03078622996</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2795,24 +2611,21 @@
         <v>155.2301</v>
       </c>
       <c r="G71" t="n">
-        <v>-28903.26088622996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2834,24 +2647,21 @@
         <v>40000</v>
       </c>
       <c r="G72" t="n">
-        <v>11096.73911377004</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2873,24 +2683,21 @@
         <v>683.3339999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>11780.07311377004</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2912,24 +2719,21 @@
         <v>439.5088</v>
       </c>
       <c r="G74" t="n">
-        <v>11340.56431377004</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2951,24 +2755,21 @@
         <v>199.1943</v>
       </c>
       <c r="G75" t="n">
-        <v>11340.56431377004</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2990,24 +2791,21 @@
         <v>91</v>
       </c>
       <c r="G76" t="n">
-        <v>11249.56431377004</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3029,24 +2827,21 @@
         <v>13</v>
       </c>
       <c r="G77" t="n">
-        <v>11249.56431377004</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9997191011235954</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3068,24 +2863,15 @@
         <v>13</v>
       </c>
       <c r="G78" t="n">
-        <v>11249.56431377004</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3107,24 +2893,19 @@
         <v>143</v>
       </c>
       <c r="G79" t="n">
-        <v>11249.56431377004</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>44.71</v>
+      </c>
+      <c r="I79" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3146,24 +2927,21 @@
         <v>143</v>
       </c>
       <c r="G80" t="n">
-        <v>11249.56431377004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3185,24 +2963,21 @@
         <v>70</v>
       </c>
       <c r="G81" t="n">
-        <v>11179.56431377004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3224,24 +2999,21 @@
         <v>81</v>
       </c>
       <c r="G82" t="n">
-        <v>11260.56431377004</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3263,24 +3035,21 @@
         <v>95</v>
       </c>
       <c r="G83" t="n">
-        <v>11355.56431377004</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3302,24 +3071,21 @@
         <v>50</v>
       </c>
       <c r="G84" t="n">
-        <v>11355.56431377004</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3341,24 +3107,21 @@
         <v>312</v>
       </c>
       <c r="G85" t="n">
-        <v>11355.56431377004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3380,24 +3143,21 @@
         <v>15</v>
       </c>
       <c r="G86" t="n">
-        <v>11340.56431377004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3419,24 +3179,21 @@
         <v>60</v>
       </c>
       <c r="G87" t="n">
-        <v>11280.56431377004</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3458,24 +3215,21 @@
         <v>20</v>
       </c>
       <c r="G88" t="n">
-        <v>11300.56431377004</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3497,24 +3251,21 @@
         <v>221</v>
       </c>
       <c r="G89" t="n">
-        <v>11079.56431377004</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3536,24 +3287,21 @@
         <v>25</v>
       </c>
       <c r="G90" t="n">
-        <v>11104.56431377004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3575,24 +3323,21 @@
         <v>13250.2366</v>
       </c>
       <c r="G91" t="n">
-        <v>-2145.672286229959</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3614,24 +3359,21 @@
         <v>17414.1005</v>
       </c>
       <c r="G92" t="n">
-        <v>-2145.672286229959</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3653,24 +3395,21 @@
         <v>1607.9312</v>
       </c>
       <c r="G93" t="n">
-        <v>-2145.672286229959</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3692,24 +3431,21 @@
         <v>47</v>
       </c>
       <c r="G94" t="n">
-        <v>-2145.672286229959</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3731,24 +3467,21 @@
         <v>560</v>
       </c>
       <c r="G95" t="n">
-        <v>-2705.672286229959</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,24 +3503,21 @@
         <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>-2735.672286229959</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3809,24 +3539,21 @@
         <v>45758.2244</v>
       </c>
       <c r="G97" t="n">
-        <v>-2735.672286229959</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3848,24 +3575,21 @@
         <v>12000</v>
       </c>
       <c r="G98" t="n">
-        <v>9264.327713770041</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3887,24 +3611,21 @@
         <v>12</v>
       </c>
       <c r="G99" t="n">
-        <v>9276.327713770041</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3926,24 +3647,21 @@
         <v>21400</v>
       </c>
       <c r="G100" t="n">
-        <v>9276.327713770041</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3965,24 +3683,21 @@
         <v>353</v>
       </c>
       <c r="G101" t="n">
-        <v>8923.327713770041</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4004,24 +3719,21 @@
         <v>17415.9862</v>
       </c>
       <c r="G102" t="n">
-        <v>26339.31391377004</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4043,24 +3755,21 @@
         <v>260</v>
       </c>
       <c r="G103" t="n">
-        <v>26339.31391377004</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4082,24 +3791,21 @@
         <v>276.6731</v>
       </c>
       <c r="G104" t="n">
-        <v>26062.64081377004</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4121,24 +3827,21 @@
         <v>120</v>
       </c>
       <c r="G105" t="n">
-        <v>26182.64081377004</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4160,24 +3863,21 @@
         <v>624</v>
       </c>
       <c r="G106" t="n">
-        <v>25558.64081377004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4199,24 +3899,21 @@
         <v>505</v>
       </c>
       <c r="G107" t="n">
-        <v>25053.64081377004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4238,24 +3935,21 @@
         <v>119.54</v>
       </c>
       <c r="G108" t="n">
-        <v>25173.18081377004</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4277,24 +3971,21 @@
         <v>360</v>
       </c>
       <c r="G109" t="n">
-        <v>24813.18081377004</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4316,24 +4007,21 @@
         <v>7538.87577847</v>
       </c>
       <c r="G110" t="n">
-        <v>32352.05659224004</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4355,24 +4043,21 @@
         <v>222.91573785</v>
       </c>
       <c r="G111" t="n">
-        <v>32574.97233009004</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4394,24 +4079,21 @@
         <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>32574.97233009004</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4433,24 +4115,21 @@
         <v>275.27</v>
       </c>
       <c r="G113" t="n">
-        <v>32299.70233009004</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4472,24 +4151,21 @@
         <v>223.46</v>
       </c>
       <c r="G114" t="n">
-        <v>32299.70233009004</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4511,24 +4187,21 @@
         <v>121.27</v>
       </c>
       <c r="G115" t="n">
-        <v>32178.43233009004</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4550,24 +4223,21 @@
         <v>50</v>
       </c>
       <c r="G116" t="n">
-        <v>32228.43233009004</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4589,24 +4259,21 @@
         <v>223.5</v>
       </c>
       <c r="G117" t="n">
-        <v>32004.93233009004</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4628,24 +4295,21 @@
         <v>323.5</v>
       </c>
       <c r="G118" t="n">
-        <v>32004.93233009004</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4667,24 +4331,21 @@
         <v>824.4400000000001</v>
       </c>
       <c r="G119" t="n">
-        <v>32829.37233009004</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,24 +4367,21 @@
         <v>41</v>
       </c>
       <c r="G120" t="n">
-        <v>32870.37233009004</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4745,24 +4403,21 @@
         <v>122</v>
       </c>
       <c r="G121" t="n">
-        <v>32870.37233009004</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4784,24 +4439,21 @@
         <v>850.62</v>
       </c>
       <c r="G122" t="n">
-        <v>32019.75233009004</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4823,24 +4475,21 @@
         <v>38.0556</v>
       </c>
       <c r="G123" t="n">
-        <v>31981.69673009004</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4862,24 +4511,21 @@
         <v>850</v>
       </c>
       <c r="G124" t="n">
-        <v>32831.69673009004</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4901,24 +4547,21 @@
         <v>25000.5521</v>
       </c>
       <c r="G125" t="n">
-        <v>7831.144630090042</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4940,24 +4583,21 @@
         <v>2667.3909</v>
       </c>
       <c r="G126" t="n">
-        <v>7831.144630090042</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4979,24 +4619,21 @@
         <v>11600</v>
       </c>
       <c r="G127" t="n">
-        <v>-3768.855369909958</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5018,24 +4655,21 @@
         <v>301.755</v>
       </c>
       <c r="G128" t="n">
-        <v>-3467.100369909957</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5057,24 +4691,21 @@
         <v>10600</v>
       </c>
       <c r="G129" t="n">
-        <v>-14067.10036990996</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5096,24 +4727,21 @@
         <v>30065.9216</v>
       </c>
       <c r="G130" t="n">
-        <v>-14067.10036990996</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5135,24 +4763,21 @@
         <v>10060.4375</v>
       </c>
       <c r="G131" t="n">
-        <v>-4006.662869909956</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5174,24 +4799,21 @@
         <v>126.8988</v>
       </c>
       <c r="G132" t="n">
-        <v>-4006.662869909956</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5213,24 +4835,21 @@
         <v>12000</v>
       </c>
       <c r="G133" t="n">
-        <v>-16006.66286990996</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5252,24 +4871,21 @@
         <v>52494.1151</v>
       </c>
       <c r="G134" t="n">
-        <v>-68500.77796990996</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5291,24 +4907,21 @@
         <v>3001</v>
       </c>
       <c r="G135" t="n">
-        <v>-68500.77796990996</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5330,24 +4943,21 @@
         <v>154.4009</v>
       </c>
       <c r="G136" t="n">
-        <v>-68500.77796990996</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5369,24 +4979,21 @@
         <v>29065.5319</v>
       </c>
       <c r="G137" t="n">
-        <v>-39435.24606990996</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5408,24 +5015,21 @@
         <v>524.7918</v>
       </c>
       <c r="G138" t="n">
-        <v>-38910.45426990996</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5447,24 +5051,21 @@
         <v>250.8616</v>
       </c>
       <c r="G139" t="n">
-        <v>-38659.59266990997</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5486,24 +5087,21 @@
         <v>664.3797</v>
       </c>
       <c r="G140" t="n">
-        <v>-37995.21296990997</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5525,24 +5123,21 @@
         <v>95.6695</v>
       </c>
       <c r="G141" t="n">
-        <v>-37995.21296990997</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5564,24 +5159,21 @@
         <v>20510.7539</v>
       </c>
       <c r="G142" t="n">
-        <v>-17484.45906990997</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5603,24 +5195,21 @@
         <v>7700</v>
       </c>
       <c r="G143" t="n">
-        <v>-17484.45906990997</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5642,24 +5231,21 @@
         <v>500</v>
       </c>
       <c r="G144" t="n">
-        <v>-17984.45906990997</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5681,24 +5267,21 @@
         <v>386.3037</v>
       </c>
       <c r="G145" t="n">
-        <v>-18370.76276990997</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5720,24 +5303,21 @@
         <v>358.6449</v>
       </c>
       <c r="G146" t="n">
-        <v>-18370.76276990997</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5759,24 +5339,21 @@
         <v>673.9031</v>
       </c>
       <c r="G147" t="n">
-        <v>-19044.66586990997</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5798,24 +5375,21 @@
         <v>20932.7595</v>
       </c>
       <c r="G148" t="n">
-        <v>-39977.42536990996</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5837,24 +5411,21 @@
         <v>662.4242</v>
       </c>
       <c r="G149" t="n">
-        <v>-39315.00116990996</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5876,24 +5447,21 @@
         <v>2413.617</v>
       </c>
       <c r="G150" t="n">
-        <v>-36901.38416990996</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5915,24 +5483,21 @@
         <v>1075.2705</v>
       </c>
       <c r="G151" t="n">
-        <v>-36901.38416990996</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>44.71</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1.014906061283829</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5954,24 +5519,15 @@
         <v>2200</v>
       </c>
       <c r="G152" t="n">
-        <v>-34701.38416990996</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5993,24 +5549,15 @@
         <v>3731.778</v>
       </c>
       <c r="G153" t="n">
-        <v>-30969.60616990997</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
